--- a/raw_data/local_continuum/processed/Columbus.xlsx
+++ b/raw_data/local_continuum/processed/Columbus.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Todd Fojo\CloudStation\Projects\Ending HIV\Ending_HIV\raw_data\local_continuum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Todd Fojo\CloudStation\Projects\Ending HIV\Ending_HIV\raw_data\local_continuum\processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="75">
   <si>
     <t>Total</t>
   </si>
@@ -227,9 +227,6 @@
   </si>
   <si>
     <t xml:space="preserve">Other counties in MSA: </t>
-  </si>
-  <si>
-    <t>Ohio data</t>
   </si>
   <si>
     <t xml:space="preserve">Over half of HIV diagnoses reported in Ohio in 2018 were among persons
@@ -290,13 +287,10 @@
     <t>https://odh.ohio.gov/wps/wcm/connect/gov/b152089f-2ddb-435f-8d8f-27dff20afc5b/Ohio+HIV+Care+Continuum+2018.pdf?MOD=AJPERES&amp;CONVERT_TO=url&amp;CACHEID=ROOTWORKSPACE.Z18_M1HGGIK0N0JO00QO9DDDDM3000-b152089f-2ddb-435f-8d8f-27dff20afc5b-n8JdmDj</t>
   </si>
   <si>
-    <t>Region 11/Part A-Columbus data: Delaware, Fairfield, Franklin, Licking, Madison, Morrow, Pickaway, Union.</t>
-  </si>
-  <si>
-    <t>Region 11/Part A data</t>
-  </si>
-  <si>
     <t>https://odh.ohio.gov/wps/wcm/connect/gov/a284d54a-f36f-4b8d-86eb-f8ee91b65eca/Region+11+HIV+Care+Continuum+2018.pdf?MOD=AJPERES&amp;CONVERT_TO=url&amp;CACHEID=ROOTWORKSPACE.Z18_M1HGGIK0N0JO00QO9DDDDM3000-a284d54a-f36f-4b8d-86eb-f8ee91b65eca-niOewEj</t>
+  </si>
+  <si>
+    <t>Region 11/Part A-Columbus data: Delaware, Fairfield, Franklin, Licking, Madison, Morrow, Pickaway, Union. - &gt;98% of prevalent cases</t>
   </si>
 </sst>
 </file>
@@ -479,7 +473,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -547,8 +541,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -857,7 +849,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T21" sqref="A1:T21"/>
+      <selection pane="bottomRight" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1206,64 +1198,64 @@
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="42">
+      <c r="B6" s="40">
         <v>79</v>
       </c>
-      <c r="C6" s="42">
+      <c r="C6" s="40">
         <v>0.91</v>
       </c>
-      <c r="D6" s="43">
+      <c r="D6" s="41">
         <v>2601</v>
       </c>
-      <c r="E6" s="43">
+      <c r="E6" s="41">
         <v>0.79</v>
       </c>
-      <c r="F6" s="43">
+      <c r="F6" s="41">
         <v>0.69</v>
       </c>
-      <c r="G6" s="42">
+      <c r="G6" s="40">
         <v>99</v>
       </c>
-      <c r="H6" s="42">
+      <c r="H6" s="40">
         <v>0.94</v>
       </c>
-      <c r="I6" s="43">
+      <c r="I6" s="41">
         <v>2591</v>
       </c>
-      <c r="J6" s="43">
+      <c r="J6" s="41">
         <v>0.76</v>
       </c>
-      <c r="K6" s="43">
+      <c r="K6" s="41">
         <v>0.65</v>
       </c>
-      <c r="L6" s="42">
+      <c r="L6" s="40">
         <v>79</v>
       </c>
-      <c r="M6" s="42">
+      <c r="M6" s="40">
         <v>0.94</v>
       </c>
-      <c r="N6" s="43">
+      <c r="N6" s="41">
         <v>2577</v>
       </c>
-      <c r="O6" s="43">
+      <c r="O6" s="41">
         <v>0.71</v>
       </c>
-      <c r="P6" s="42">
+      <c r="P6" s="40">
         <v>0.63</v>
       </c>
-      <c r="Q6" s="42">
+      <c r="Q6" s="40">
         <v>76</v>
       </c>
-      <c r="R6" s="42">
+      <c r="R6" s="40">
         <v>0.91</v>
       </c>
-      <c r="S6" s="43">
+      <c r="S6" s="41">
         <v>2591</v>
       </c>
-      <c r="T6" s="43">
+      <c r="T6" s="41">
         <v>0.7</v>
       </c>
-      <c r="U6" s="43">
+      <c r="U6" s="41">
         <v>0.56999999999999995</v>
       </c>
     </row>
@@ -1336,64 +1328,64 @@
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="42">
+      <c r="B8" s="40">
         <v>52</v>
       </c>
-      <c r="C8" s="42">
+      <c r="C8" s="40">
         <v>0.9</v>
       </c>
-      <c r="D8" s="43">
+      <c r="D8" s="41">
         <v>1140</v>
       </c>
       <c r="E8" s="38">
         <v>0.73</v>
       </c>
-      <c r="F8" s="43">
+      <c r="F8" s="41">
         <v>0.63</v>
       </c>
-      <c r="G8" s="42">
+      <c r="G8" s="40">
         <v>51</v>
       </c>
-      <c r="H8" s="42">
+      <c r="H8" s="40">
         <v>0.98</v>
       </c>
-      <c r="I8" s="43">
+      <c r="I8" s="41">
         <v>1063</v>
       </c>
       <c r="J8" s="38">
         <v>0.67</v>
       </c>
-      <c r="K8" s="43">
+      <c r="K8" s="41">
         <v>0.56000000000000005</v>
       </c>
-      <c r="L8" s="42">
+      <c r="L8" s="40">
         <v>48</v>
       </c>
-      <c r="M8" s="42">
+      <c r="M8" s="40">
         <v>0.9</v>
       </c>
-      <c r="N8" s="43">
+      <c r="N8" s="41">
         <v>1014</v>
       </c>
       <c r="O8" s="38">
         <v>0.55000000000000004</v>
       </c>
-      <c r="P8" s="42">
+      <c r="P8" s="40">
         <v>0.45</v>
       </c>
-      <c r="Q8" s="42">
+      <c r="Q8" s="40">
         <v>55</v>
       </c>
-      <c r="R8" s="42">
+      <c r="R8" s="40">
         <v>0.82</v>
       </c>
-      <c r="S8" s="43">
+      <c r="S8" s="41">
         <v>1004</v>
       </c>
       <c r="T8" s="38">
         <v>0.54</v>
       </c>
-      <c r="U8" s="43">
+      <c r="U8" s="41">
         <v>0.43</v>
       </c>
     </row>
@@ -1741,7 +1733,7 @@
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="42">
+      <c r="B13" s="40">
         <f>12+4</f>
         <v>16</v>
       </c>
@@ -1749,19 +1741,19 @@
         <f>(10+4)/B13</f>
         <v>0.875</v>
       </c>
-      <c r="D13" s="42">
+      <c r="D13" s="40">
         <f>1218+341</f>
         <v>1559</v>
       </c>
-      <c r="E13" s="43">
+      <c r="E13" s="41">
         <f>(889+237)/D13</f>
         <v>0.72225785760102634</v>
       </c>
-      <c r="F13" s="42">
+      <c r="F13" s="40">
         <f>(788+217)/D13</f>
         <v>0.64464400256574728</v>
       </c>
-      <c r="G13" s="42">
+      <c r="G13" s="40">
         <f>22+4</f>
         <v>26</v>
       </c>
@@ -1769,31 +1761,31 @@
         <f>(20+4)/G13</f>
         <v>0.92307692307692313</v>
       </c>
-      <c r="I13" s="42">
+      <c r="I13" s="40">
         <f>1129+289</f>
         <v>1418</v>
       </c>
-      <c r="J13" s="43">
+      <c r="J13" s="41">
         <f>(821+198)/I13</f>
         <v>0.71861777150916784</v>
       </c>
-      <c r="K13" s="42">
+      <c r="K13" s="40">
         <f>(713+179)/I13</f>
         <v>0.6290550070521862</v>
       </c>
-      <c r="L13" s="42">
+      <c r="L13" s="40">
         <f>17+1</f>
         <v>18</v>
       </c>
-      <c r="M13" s="42">
+      <c r="M13" s="40">
         <f>(16+1)/L13</f>
         <v>0.94444444444444442</v>
       </c>
-      <c r="N13" s="42">
+      <c r="N13" s="40">
         <f>1026+260</f>
         <v>1286</v>
       </c>
-      <c r="O13" s="43">
+      <c r="O13" s="41">
         <f>(690+166)/N13</f>
         <v>0.66562986003110425</v>
       </c>
@@ -1801,7 +1793,7 @@
         <f>(606+156)/N13</f>
         <v>0.59253499222395023</v>
       </c>
-      <c r="Q13" s="42">
+      <c r="Q13" s="40">
         <f>9+7</f>
         <v>16</v>
       </c>
@@ -1809,15 +1801,15 @@
         <f>(7+7)/Q13</f>
         <v>0.875</v>
       </c>
-      <c r="S13" s="42">
+      <c r="S13" s="40">
         <f>956+231</f>
         <v>1187</v>
       </c>
-      <c r="T13" s="43">
+      <c r="T13" s="41">
         <f>(629+140)/S13</f>
         <v>0.64785172704296545</v>
       </c>
-      <c r="U13" s="42">
+      <c r="U13" s="40">
         <f>(545+128)/S13</f>
         <v>0.56697556866048859</v>
       </c>
@@ -2042,83 +2034,83 @@
       <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="42">
+      <c r="B17" s="40">
         <f>6+37</f>
         <v>43</v>
       </c>
-      <c r="C17" s="42">
+      <c r="C17" s="40">
         <f>(6+35)/B17</f>
         <v>0.95348837209302328</v>
       </c>
-      <c r="D17" s="43">
+      <c r="D17" s="41">
         <f>254+898</f>
         <v>1152</v>
       </c>
-      <c r="E17" s="43">
+      <c r="E17" s="41">
         <f>(186+702)/D17</f>
         <v>0.77083333333333337</v>
       </c>
-      <c r="F17" s="43">
+      <c r="F17" s="41">
         <f>(149+612)/D17</f>
         <v>0.66059027777777779</v>
       </c>
-      <c r="G17" s="42">
+      <c r="G17" s="40">
         <f>5+41</f>
         <v>46</v>
       </c>
-      <c r="H17" s="42">
+      <c r="H17" s="40">
         <f>(5+40)/G17</f>
         <v>0.97826086956521741</v>
       </c>
-      <c r="I17" s="43">
+      <c r="I17" s="41">
         <f>227+840</f>
         <v>1067</v>
       </c>
-      <c r="J17" s="43">
+      <c r="J17" s="41">
         <f>(170+599)/I17</f>
         <v>0.72071227741330834</v>
       </c>
-      <c r="K17" s="43">
+      <c r="K17" s="41">
         <f>(140+516)/I17</f>
         <v>0.61480787253983127</v>
       </c>
-      <c r="L17" s="42">
+      <c r="L17" s="40">
         <f>6+36</f>
         <v>42</v>
       </c>
-      <c r="M17" s="42">
+      <c r="M17" s="40">
         <f>(5+34)/L17</f>
         <v>0.9285714285714286</v>
       </c>
-      <c r="N17" s="43">
+      <c r="N17" s="41">
         <f>175+793</f>
         <v>968</v>
       </c>
-      <c r="O17" s="43">
+      <c r="O17" s="41">
         <f>(113+476)/N17</f>
         <v>0.60847107438016534</v>
       </c>
-      <c r="P17" s="42">
+      <c r="P17" s="40">
         <f>(91+396)/N17</f>
         <v>0.50309917355371903</v>
       </c>
-      <c r="Q17" s="42">
+      <c r="Q17" s="40">
         <f>3+43</f>
         <v>46</v>
       </c>
-      <c r="R17" s="42">
+      <c r="R17" s="40">
         <f>(3+36)/Q17</f>
         <v>0.84782608695652173</v>
       </c>
-      <c r="S17" s="43">
+      <c r="S17" s="41">
         <f>188+766</f>
         <v>954</v>
       </c>
-      <c r="T17" s="43">
+      <c r="T17" s="41">
         <f>(283+463)/S17</f>
         <v>0.78197064989517817</v>
       </c>
-      <c r="U17" s="43">
+      <c r="U17" s="41">
         <f>(97+373)/S17</f>
         <v>0.49266247379454925</v>
       </c>
@@ -2183,17 +2175,15 @@
       <c r="E20" s="38"/>
       <c r="F20" s="38"/>
       <c r="G20" s="38"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="46"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="44"/>
       <c r="J20" s="38"/>
       <c r="M20" s="12"/>
       <c r="S20" s="12"/>
       <c r="Y20" s="12"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B21" s="41" t="s">
-        <v>55</v>
-      </c>
+      <c r="B21" s="39"/>
       <c r="M21" s="15"/>
       <c r="S21" s="15"/>
       <c r="Y21" s="15"/>
@@ -2264,13 +2254,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="B6:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2409,123 +2399,11 @@
         <v>0.63989871586181946</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>2015</v>
-      </c>
-      <c r="B6" s="39">
-        <v>935</v>
-      </c>
-      <c r="C6" s="40">
-        <f>737/B6</f>
-        <v>0.78823529411764703</v>
-      </c>
-      <c r="D6" s="41">
-        <v>21201</v>
-      </c>
-      <c r="E6" s="40">
-        <f>12190/D6</f>
-        <v>0.57497287863780011</v>
-      </c>
-      <c r="F6" s="40">
-        <f>7626/D6</f>
-        <v>0.35970001415027592</v>
-      </c>
-      <c r="G6" s="40">
-        <f>9234/D6</f>
-        <v>0.43554549313711616</v>
-      </c>
-    </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B7" s="39">
-        <v>979</v>
-      </c>
-      <c r="C7" s="40">
-        <f>812/B7</f>
-        <v>0.82941777323799792</v>
-      </c>
-      <c r="D7" s="41">
-        <v>22510</v>
-      </c>
-      <c r="E7" s="40">
-        <f>13154/D7</f>
-        <v>0.58436250555308755</v>
-      </c>
-      <c r="F7" s="40">
-        <f>8369/D7</f>
-        <v>0.37179031541537094</v>
-      </c>
-      <c r="G7" s="40">
-        <f>10738/D7</f>
-        <v>0.4770324300310973</v>
-      </c>
+      <c r="B7" s="38"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B8" s="39">
-        <v>981</v>
-      </c>
-      <c r="C8" s="40">
-        <f>876/B8</f>
-        <v>0.89296636085626913</v>
-      </c>
-      <c r="D8" s="41">
-        <v>23131</v>
-      </c>
-      <c r="E8" s="40">
-        <f>15309/D8</f>
-        <v>0.66183909039816691</v>
-      </c>
-      <c r="F8" s="40">
-        <f>9029/D8</f>
-        <v>0.39034196532791493</v>
-      </c>
-      <c r="G8" s="40">
-        <f>12416/D8</f>
-        <v>0.53676883835545375</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>2018</v>
-      </c>
-      <c r="B9" s="39">
-        <v>979</v>
-      </c>
-      <c r="C9" s="40">
-        <f>849/B9</f>
-        <v>0.86721144024514807</v>
-      </c>
-      <c r="D9" s="41">
-        <v>23530</v>
-      </c>
-      <c r="E9" s="40">
-        <f>16689/D9</f>
-        <v>0.70926476838079044</v>
-      </c>
-      <c r="F9" s="40">
-        <f>10969/D9</f>
-        <v>0.46617084572885675</v>
-      </c>
-      <c r="G9" s="40">
-        <f>13888/D9</f>
-        <v>0.59022524436889079</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="38" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="41" t="s">
-        <v>55</v>
-      </c>
+      <c r="B8" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2552,7 +2430,7 @@
         <v>24</v>
       </c>
       <c r="D1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -2653,93 +2531,93 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B19" s="16"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B28" s="42" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B28" s="44" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.3">
